--- a/data/MarkersData/IPronoun.xlsx
+++ b/data/MarkersData/IPronoun.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\хех\hse\диплом\docs\data\MarkersData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ember-interface-try\data\MarkersData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E7D4EB6-967E-4DA0-87B7-FDF48A852B15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A6D3371-0796-4D1B-A024-A18ACB96D5A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20736" yWindow="1140" windowWidth="19176" windowHeight="10656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4920" yWindow="1230" windowWidth="21675" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -33,15 +33,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
-  <si>
-    <t>IPronoun</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Среднее</t>
   </si>
   <si>
     <t>Ст. откл.</t>
+  </si>
+  <si>
+    <t>Competent - IPronoun</t>
+  </si>
+  <si>
+    <t>Student - IPronoun</t>
   </si>
 </sst>
 </file>
@@ -229,7 +232,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -511,28 +514,28 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="9.140625" style="17"/>
-    <col min="3" max="3" width="9.140625" style="3"/>
+    <col min="2" max="2" width="12" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" ht="15.75" thickBot="1">
+    <row r="1" spans="1:3" s="4" customFormat="1" ht="39" thickBot="1">
       <c r="B1" s="13" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="9" customFormat="1">
       <c r="A2" s="7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="14">
         <v>1.3914285714285719E-3</v>
@@ -543,7 +546,7 @@
     </row>
     <row r="3" spans="1:3" s="12" customFormat="1" ht="15.75" thickBot="1">
       <c r="A3" s="10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="15">
         <v>1.2019235339263035E-3</v>
